--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.303581</v>
+        <v>17.48485266666667</v>
       </c>
       <c r="H2">
-        <v>51.910743</v>
+        <v>52.454558</v>
       </c>
       <c r="I2">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="J2">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7233726666666667</v>
+        <v>6.765278333333334</v>
       </c>
       <c r="N2">
-        <v>2.170118</v>
+        <v>20.295835</v>
       </c>
       <c r="O2">
-        <v>0.002408370320893567</v>
+        <v>0.0349332049092726</v>
       </c>
       <c r="P2">
-        <v>0.002408370320893567</v>
+        <v>0.03493320490927259</v>
       </c>
       <c r="Q2">
-        <v>12.51693753085267</v>
+        <v>118.2898949073255</v>
       </c>
       <c r="R2">
-        <v>112.652437777674</v>
+        <v>1064.60905416593</v>
       </c>
       <c r="S2">
-        <v>0.0003929642279570827</v>
+        <v>0.005873404825193549</v>
       </c>
       <c r="T2">
-        <v>0.0003929642279570829</v>
+        <v>0.005873404825193549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.303581</v>
+        <v>17.48485266666667</v>
       </c>
       <c r="H3">
-        <v>51.910743</v>
+        <v>52.454558</v>
       </c>
       <c r="I3">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="J3">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>319.008461</v>
       </c>
       <c r="O3">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231155</v>
       </c>
       <c r="P3">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231153</v>
       </c>
       <c r="Q3">
-        <v>1839.996248199614</v>
+        <v>1859.271980001693</v>
       </c>
       <c r="R3">
-        <v>16559.96623379652</v>
+        <v>16733.44782001524</v>
       </c>
       <c r="S3">
-        <v>0.05776594341351123</v>
+        <v>0.09231775061804395</v>
       </c>
       <c r="T3">
-        <v>0.05776594341351124</v>
+        <v>0.09231775061804393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.303581</v>
+        <v>17.48485266666667</v>
       </c>
       <c r="H4">
-        <v>51.910743</v>
+        <v>52.454558</v>
       </c>
       <c r="I4">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="J4">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.89322166666668</v>
+        <v>17.02147133333333</v>
       </c>
       <c r="N4">
-        <v>173.679665</v>
+        <v>51.064414</v>
       </c>
       <c r="O4">
-        <v>0.1927475605145606</v>
+        <v>0.08789210386436075</v>
       </c>
       <c r="P4">
-        <v>0.1927475605145607</v>
+        <v>0.08789210386436073</v>
       </c>
       <c r="Q4">
-        <v>1001.760050460122</v>
+        <v>297.6179184332236</v>
       </c>
       <c r="R4">
-        <v>9015.840454141096</v>
+        <v>2678.561265899012</v>
       </c>
       <c r="S4">
-        <v>0.03144985455563697</v>
+        <v>0.01477751349394006</v>
       </c>
       <c r="T4">
-        <v>0.03144985455563697</v>
+        <v>0.01477751349394006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.303581</v>
+        <v>17.48485266666667</v>
       </c>
       <c r="H5">
-        <v>51.910743</v>
+        <v>52.454558</v>
       </c>
       <c r="I5">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="J5">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.92829033333333</v>
+        <v>53.29392033333333</v>
       </c>
       <c r="N5">
-        <v>89.784871</v>
+        <v>159.881761</v>
       </c>
       <c r="O5">
-        <v>0.09964214783788601</v>
+        <v>0.2751885950131319</v>
       </c>
       <c r="P5">
-        <v>0.09964214783788602</v>
+        <v>0.2751885950131318</v>
       </c>
       <c r="Q5">
-        <v>517.8665959743504</v>
+        <v>931.8363450574039</v>
       </c>
       <c r="R5">
-        <v>4660.799363769153</v>
+        <v>8386.527105516638</v>
       </c>
       <c r="S5">
-        <v>0.01625821384585597</v>
+        <v>0.04626812873271002</v>
       </c>
       <c r="T5">
-        <v>0.01625821384585598</v>
+        <v>0.04626812873271001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.303581</v>
+        <v>17.48485266666667</v>
       </c>
       <c r="H6">
-        <v>51.910743</v>
+        <v>52.454558</v>
       </c>
       <c r="I6">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="J6">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.956161</v>
+        <v>1.833118333333333</v>
       </c>
       <c r="N6">
-        <v>5.868483</v>
+        <v>5.499355</v>
       </c>
       <c r="O6">
-        <v>0.006512770405050989</v>
+        <v>0.009465493540119574</v>
       </c>
       <c r="P6">
-        <v>0.00651277040505099</v>
+        <v>0.009465493540119573</v>
       </c>
       <c r="Q6">
-        <v>33.84859031254101</v>
+        <v>32.05180397889888</v>
       </c>
       <c r="R6">
-        <v>304.637312812869</v>
+        <v>288.46623581009</v>
       </c>
       <c r="S6">
-        <v>0.00106266290191329</v>
+        <v>0.001591456483187426</v>
       </c>
       <c r="T6">
-        <v>0.00106266290191329</v>
+        <v>0.001591456483187425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.303581</v>
+        <v>17.48485266666667</v>
       </c>
       <c r="H7">
-        <v>51.910743</v>
+        <v>52.454558</v>
       </c>
       <c r="I7">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="J7">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>103.5205406666667</v>
+        <v>8.413317666666666</v>
       </c>
       <c r="N7">
-        <v>310.561622</v>
+        <v>25.239953</v>
       </c>
       <c r="O7">
-        <v>0.3446574763369395</v>
+        <v>0.04344302414999972</v>
       </c>
       <c r="P7">
-        <v>0.3446574763369397</v>
+        <v>0.04344302414999971</v>
       </c>
       <c r="Q7">
-        <v>1791.276060589461</v>
+        <v>147.1056198395304</v>
       </c>
       <c r="R7">
-        <v>16121.48454530515</v>
+        <v>1323.950578555774</v>
       </c>
       <c r="S7">
-        <v>0.0562363926857108</v>
+        <v>0.007304181460770567</v>
       </c>
       <c r="T7">
-        <v>0.05623639268571083</v>
+        <v>0.007304181460770565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>114.724638</v>
       </c>
       <c r="I8">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="J8">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7233726666666667</v>
+        <v>6.765278333333334</v>
       </c>
       <c r="N8">
-        <v>2.170118</v>
+        <v>20.295835</v>
       </c>
       <c r="O8">
-        <v>0.002408370320893567</v>
+        <v>0.0349332049092726</v>
       </c>
       <c r="P8">
-        <v>0.002408370320893567</v>
+        <v>0.03493320490927259</v>
       </c>
       <c r="Q8">
-        <v>27.662889107476</v>
+        <v>258.71470258697</v>
       </c>
       <c r="R8">
-        <v>248.966001967284</v>
+        <v>2328.43232328273</v>
       </c>
       <c r="S8">
-        <v>0.0008684652962745263</v>
+        <v>0.01284586636680426</v>
       </c>
       <c r="T8">
-        <v>0.0008684652962745266</v>
+        <v>0.01284586636680426</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>114.724638</v>
       </c>
       <c r="I9">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="J9">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>319.008461</v>
       </c>
       <c r="O9">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231155</v>
       </c>
       <c r="P9">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231153</v>
       </c>
       <c r="Q9">
         <v>4066.458911906902</v>
@@ -1013,10 +1013,10 @@
         <v>36598.13020716212</v>
       </c>
       <c r="S9">
-        <v>0.127664844767172</v>
+        <v>0.2019103949103788</v>
       </c>
       <c r="T9">
-        <v>0.127664844767172</v>
+        <v>0.2019103949103787</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>114.724638</v>
       </c>
       <c r="I10">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="J10">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.89322166666668</v>
+        <v>17.02147133333333</v>
       </c>
       <c r="N10">
-        <v>173.679665</v>
+        <v>51.064414</v>
       </c>
       <c r="O10">
-        <v>0.1927475605145606</v>
+        <v>0.08789210386436075</v>
       </c>
       <c r="P10">
-        <v>0.1927475605145607</v>
+        <v>0.08789210386436073</v>
       </c>
       <c r="Q10">
-        <v>2213.92629945403</v>
+        <v>650.9273789813481</v>
       </c>
       <c r="R10">
-        <v>19925.33669508627</v>
+        <v>5858.346410832132</v>
       </c>
       <c r="S10">
-        <v>0.069505327231554</v>
+        <v>0.03232025873008765</v>
       </c>
       <c r="T10">
-        <v>0.06950532723155403</v>
+        <v>0.03232025873008764</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>114.724638</v>
       </c>
       <c r="I11">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="J11">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.92829033333333</v>
+        <v>53.29392033333333</v>
       </c>
       <c r="N11">
-        <v>89.784871</v>
+        <v>159.881761</v>
       </c>
       <c r="O11">
-        <v>0.09964214783788601</v>
+        <v>0.2751885950131319</v>
       </c>
       <c r="P11">
-        <v>0.09964214783788602</v>
+        <v>0.2751885950131318</v>
       </c>
       <c r="Q11">
-        <v>1144.504091483522</v>
+        <v>2038.041905947502</v>
       </c>
       <c r="R11">
-        <v>10300.5368233517</v>
+        <v>18342.37715352752</v>
       </c>
       <c r="S11">
-        <v>0.03593124640871378</v>
+        <v>0.1011941482720635</v>
       </c>
       <c r="T11">
-        <v>0.03593124640871379</v>
+        <v>0.1011941482720635</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>114.724638</v>
       </c>
       <c r="I12">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="J12">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.956161</v>
+        <v>1.833118333333333</v>
       </c>
       <c r="N12">
-        <v>5.868483</v>
+        <v>5.499355</v>
       </c>
       <c r="O12">
-        <v>0.006512770405050989</v>
+        <v>0.009465493540119574</v>
       </c>
       <c r="P12">
-        <v>0.00651277040505099</v>
+        <v>0.009465493540119573</v>
       </c>
       <c r="Q12">
-        <v>74.80662086490599</v>
+        <v>70.10127906760999</v>
       </c>
       <c r="R12">
-        <v>673.2595877841541</v>
+        <v>630.9115116084899</v>
       </c>
       <c r="S12">
-        <v>0.002348523825560187</v>
+        <v>0.003480713133192934</v>
       </c>
       <c r="T12">
-        <v>0.002348523825560187</v>
+        <v>0.003480713133192934</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>114.724638</v>
       </c>
       <c r="I13">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="J13">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.5205406666667</v>
+        <v>8.413317666666666</v>
       </c>
       <c r="N13">
-        <v>310.561622</v>
+        <v>25.239953</v>
       </c>
       <c r="O13">
-        <v>0.3446574763369395</v>
+        <v>0.04344302414999972</v>
       </c>
       <c r="P13">
-        <v>0.3446574763369397</v>
+        <v>0.04344302414999971</v>
       </c>
       <c r="Q13">
-        <v>3958.785517849204</v>
+        <v>321.738274562446</v>
       </c>
       <c r="R13">
-        <v>35629.06966064284</v>
+        <v>2895.644471062014</v>
       </c>
       <c r="S13">
-        <v>0.124284481793952</v>
+        <v>0.01597515270213914</v>
       </c>
       <c r="T13">
-        <v>0.124284481793952</v>
+        <v>0.01597515270213914</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.088018</v>
+        <v>6.948532333333334</v>
       </c>
       <c r="H14">
-        <v>57.264054</v>
+        <v>20.845597</v>
       </c>
       <c r="I14">
-        <v>0.1799925777648674</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="J14">
-        <v>0.1799925777648675</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7233726666666667</v>
+        <v>6.765278333333334</v>
       </c>
       <c r="N14">
-        <v>2.170118</v>
+        <v>20.295835</v>
       </c>
       <c r="O14">
-        <v>0.002408370320893567</v>
+        <v>0.0349332049092726</v>
       </c>
       <c r="P14">
-        <v>0.002408370320893567</v>
+        <v>0.03493320490927259</v>
       </c>
       <c r="Q14">
-        <v>13.80775048204134</v>
+        <v>47.00875524316611</v>
       </c>
       <c r="R14">
-        <v>124.269754338372</v>
+        <v>423.0787971884951</v>
       </c>
       <c r="S14">
-        <v>0.0004334887822700341</v>
+        <v>0.002334108505953671</v>
       </c>
       <c r="T14">
-        <v>0.0004334887822700342</v>
+        <v>0.002334108505953671</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.088018</v>
+        <v>6.948532333333334</v>
       </c>
       <c r="H15">
-        <v>57.264054</v>
+        <v>20.845597</v>
       </c>
       <c r="I15">
-        <v>0.1799925777648674</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="J15">
-        <v>0.1799925777648675</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>319.008461</v>
       </c>
       <c r="O15">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231155</v>
       </c>
       <c r="P15">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231153</v>
       </c>
       <c r="Q15">
-        <v>2029.7464152401</v>
+        <v>738.8802019551352</v>
       </c>
       <c r="R15">
-        <v>18267.7177371609</v>
+        <v>6649.921817596218</v>
       </c>
       <c r="S15">
-        <v>0.0637230737189073</v>
+        <v>0.03668734803427846</v>
       </c>
       <c r="T15">
-        <v>0.06372307371890731</v>
+        <v>0.03668734803427845</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.088018</v>
+        <v>6.948532333333334</v>
       </c>
       <c r="H16">
-        <v>57.264054</v>
+        <v>20.845597</v>
       </c>
       <c r="I16">
-        <v>0.1799925777648674</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="J16">
-        <v>0.1799925777648675</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.89322166666668</v>
+        <v>17.02147133333333</v>
       </c>
       <c r="N16">
-        <v>173.679665</v>
+        <v>51.064414</v>
       </c>
       <c r="O16">
-        <v>0.1927475605145606</v>
+        <v>0.08789210386436075</v>
       </c>
       <c r="P16">
-        <v>0.1927475605145607</v>
+        <v>0.08789210386436073</v>
       </c>
       <c r="Q16">
-        <v>1105.066857251324</v>
+        <v>118.2742439205731</v>
       </c>
       <c r="R16">
-        <v>9945.601715261912</v>
+        <v>1064.468195285158</v>
       </c>
       <c r="S16">
-        <v>0.03469313027490555</v>
+        <v>0.005872627712480896</v>
       </c>
       <c r="T16">
-        <v>0.03469313027490556</v>
+        <v>0.005872627712480896</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.088018</v>
+        <v>6.948532333333334</v>
       </c>
       <c r="H17">
-        <v>57.264054</v>
+        <v>20.845597</v>
       </c>
       <c r="I17">
-        <v>0.1799925777648674</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="J17">
-        <v>0.1799925777648675</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.92829033333333</v>
+        <v>53.29392033333333</v>
       </c>
       <c r="N17">
-        <v>89.784871</v>
+        <v>159.881761</v>
       </c>
       <c r="O17">
-        <v>0.09964214783788601</v>
+        <v>0.2751885950131319</v>
       </c>
       <c r="P17">
-        <v>0.09964214783788602</v>
+        <v>0.2751885950131318</v>
       </c>
       <c r="Q17">
-        <v>571.2717445918927</v>
+        <v>370.3145286062574</v>
       </c>
       <c r="R17">
-        <v>5141.445701327034</v>
+        <v>3332.830757456317</v>
       </c>
       <c r="S17">
-        <v>0.01793484704336911</v>
+        <v>0.01838709165190552</v>
       </c>
       <c r="T17">
-        <v>0.01793484704336912</v>
+        <v>0.01838709165190552</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.088018</v>
+        <v>6.948532333333334</v>
       </c>
       <c r="H18">
-        <v>57.264054</v>
+        <v>20.845597</v>
       </c>
       <c r="I18">
-        <v>0.1799925777648674</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="J18">
-        <v>0.1799925777648675</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.956161</v>
+        <v>1.833118333333333</v>
       </c>
       <c r="N18">
-        <v>5.868483</v>
+        <v>5.499355</v>
       </c>
       <c r="O18">
-        <v>0.006512770405050989</v>
+        <v>0.009465493540119574</v>
       </c>
       <c r="P18">
-        <v>0.00651277040505099</v>
+        <v>0.009465493540119573</v>
       </c>
       <c r="Q18">
-        <v>37.339236378898</v>
+        <v>12.73748200999278</v>
       </c>
       <c r="R18">
-        <v>336.053127410082</v>
+        <v>114.637338089935</v>
       </c>
       <c r="S18">
-        <v>0.001172250333595867</v>
+        <v>0.0006324495288200189</v>
       </c>
       <c r="T18">
-        <v>0.001172250333595868</v>
+        <v>0.0006324495288200188</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.088018</v>
+        <v>6.948532333333334</v>
       </c>
       <c r="H19">
-        <v>57.264054</v>
+        <v>20.845597</v>
       </c>
       <c r="I19">
-        <v>0.1799925777648674</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="J19">
-        <v>0.1799925777648675</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>103.5205406666667</v>
+        <v>8.413317666666666</v>
       </c>
       <c r="N19">
-        <v>310.561622</v>
+        <v>25.239953</v>
       </c>
       <c r="O19">
-        <v>0.3446574763369395</v>
+        <v>0.04344302414999972</v>
       </c>
       <c r="P19">
-        <v>0.3446574763369397</v>
+        <v>0.04344302414999971</v>
       </c>
       <c r="Q19">
-        <v>1976.001943615065</v>
+        <v>58.46020983743789</v>
       </c>
       <c r="R19">
-        <v>17784.01749253559</v>
+        <v>526.141888536941</v>
       </c>
       <c r="S19">
-        <v>0.06203578761181955</v>
+        <v>0.002902703386540681</v>
       </c>
       <c r="T19">
-        <v>0.06203578761181958</v>
+        <v>0.00290270338654068</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.158358999999999</v>
+        <v>1.196493666666667</v>
       </c>
       <c r="H20">
-        <v>9.475076999999999</v>
+        <v>3.589481</v>
       </c>
       <c r="I20">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905926</v>
       </c>
       <c r="J20">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905925</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7233726666666667</v>
+        <v>6.765278333333334</v>
       </c>
       <c r="N20">
-        <v>2.170118</v>
+        <v>20.295835</v>
       </c>
       <c r="O20">
-        <v>0.002408370320893567</v>
+        <v>0.0349332049092726</v>
       </c>
       <c r="P20">
-        <v>0.002408370320893567</v>
+        <v>0.03493320490927259</v>
       </c>
       <c r="Q20">
-        <v>2.284670572120666</v>
+        <v>8.094612679070558</v>
       </c>
       <c r="R20">
-        <v>20.562035149086</v>
+        <v>72.851514111635</v>
       </c>
       <c r="S20">
-        <v>7.17263152665511E-05</v>
+        <v>0.0004019188384990408</v>
       </c>
       <c r="T20">
-        <v>7.172631526655113E-05</v>
+        <v>0.0004019188384990407</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.158358999999999</v>
+        <v>1.196493666666667</v>
       </c>
       <c r="H21">
-        <v>9.475076999999999</v>
+        <v>3.589481</v>
       </c>
       <c r="I21">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905926</v>
       </c>
       <c r="J21">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905925</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>319.008461</v>
       </c>
       <c r="O21">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231155</v>
       </c>
       <c r="P21">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231153</v>
       </c>
       <c r="Q21">
-        <v>335.8477479584996</v>
+        <v>127.2305343998601</v>
       </c>
       <c r="R21">
-        <v>3022.629731626497</v>
+        <v>1145.074809598741</v>
       </c>
       <c r="S21">
-        <v>0.01054380519694472</v>
+        <v>0.006317331123182985</v>
       </c>
       <c r="T21">
-        <v>0.01054380519694472</v>
+        <v>0.006317331123182984</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.158358999999999</v>
+        <v>1.196493666666667</v>
       </c>
       <c r="H22">
-        <v>9.475076999999999</v>
+        <v>3.589481</v>
       </c>
       <c r="I22">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905926</v>
       </c>
       <c r="J22">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905925</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>57.89322166666668</v>
+        <v>17.02147133333333</v>
       </c>
       <c r="N22">
-        <v>173.679665</v>
+        <v>51.064414</v>
       </c>
       <c r="O22">
-        <v>0.1927475605145606</v>
+        <v>0.08789210386436075</v>
       </c>
       <c r="P22">
-        <v>0.1927475605145607</v>
+        <v>0.08789210386436073</v>
       </c>
       <c r="Q22">
-        <v>182.8475776899117</v>
+        <v>20.36608264768156</v>
       </c>
       <c r="R22">
-        <v>1645.628199209205</v>
+        <v>183.294743829134</v>
       </c>
       <c r="S22">
-        <v>0.005740426284275318</v>
+        <v>0.001011229642116925</v>
       </c>
       <c r="T22">
-        <v>0.005740426284275319</v>
+        <v>0.001011229642116925</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.158358999999999</v>
+        <v>1.196493666666667</v>
       </c>
       <c r="H23">
-        <v>9.475076999999999</v>
+        <v>3.589481</v>
       </c>
       <c r="I23">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905926</v>
       </c>
       <c r="J23">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905925</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.92829033333333</v>
+        <v>53.29392033333333</v>
       </c>
       <c r="N23">
-        <v>89.784871</v>
+        <v>159.881761</v>
       </c>
       <c r="O23">
-        <v>0.09964214783788601</v>
+        <v>0.2751885950131319</v>
       </c>
       <c r="P23">
-        <v>0.09964214783788602</v>
+        <v>0.2751885950131318</v>
       </c>
       <c r="Q23">
-        <v>94.52428512889631</v>
+        <v>63.76583815067122</v>
       </c>
       <c r="R23">
-        <v>850.7185661600669</v>
+        <v>573.892543356041</v>
       </c>
       <c r="S23">
-        <v>0.002967551978054936</v>
+        <v>0.003166141805858258</v>
       </c>
       <c r="T23">
-        <v>0.002967551978054937</v>
+        <v>0.003166141805858257</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.158358999999999</v>
+        <v>1.196493666666667</v>
       </c>
       <c r="H24">
-        <v>9.475076999999999</v>
+        <v>3.589481</v>
       </c>
       <c r="I24">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905926</v>
       </c>
       <c r="J24">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905925</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.956161</v>
+        <v>1.833118333333333</v>
       </c>
       <c r="N24">
-        <v>5.868483</v>
+        <v>5.499355</v>
       </c>
       <c r="O24">
-        <v>0.006512770405050989</v>
+        <v>0.009465493540119574</v>
       </c>
       <c r="P24">
-        <v>0.00651277040505099</v>
+        <v>0.009465493540119573</v>
       </c>
       <c r="Q24">
-        <v>6.178258699798999</v>
+        <v>2.193314476083889</v>
       </c>
       <c r="R24">
-        <v>55.604328298191</v>
+        <v>19.739830284755</v>
       </c>
       <c r="S24">
-        <v>0.0001939639511742659</v>
+        <v>0.0001089038403245736</v>
       </c>
       <c r="T24">
-        <v>0.000193963951174266</v>
+        <v>0.0001089038403245736</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.158358999999999</v>
+        <v>1.196493666666667</v>
       </c>
       <c r="H25">
-        <v>9.475076999999999</v>
+        <v>3.589481</v>
       </c>
       <c r="I25">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905926</v>
       </c>
       <c r="J25">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905925</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>103.5205406666667</v>
+        <v>8.413317666666666</v>
       </c>
       <c r="N25">
-        <v>310.561622</v>
+        <v>25.239953</v>
       </c>
       <c r="O25">
-        <v>0.3446574763369395</v>
+        <v>0.04344302414999972</v>
       </c>
       <c r="P25">
-        <v>0.3446574763369397</v>
+        <v>0.04344302414999971</v>
       </c>
       <c r="Q25">
-        <v>326.9550312994326</v>
+        <v>10.06648130382144</v>
       </c>
       <c r="R25">
-        <v>2942.595281694894</v>
+        <v>90.598331734393</v>
       </c>
       <c r="S25">
-        <v>0.01026462192805344</v>
+        <v>0.0004998273090774723</v>
       </c>
       <c r="T25">
-        <v>0.01026462192805344</v>
+        <v>0.0004998273090774722</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.432258000000001</v>
+        <v>5.330446333333334</v>
       </c>
       <c r="H26">
-        <v>19.296774</v>
+        <v>15.991339</v>
       </c>
       <c r="I26">
-        <v>0.0606536885217046</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="J26">
-        <v>0.06065368852170461</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.7233726666666667</v>
+        <v>6.765278333333334</v>
       </c>
       <c r="N26">
-        <v>2.170118</v>
+        <v>20.295835</v>
       </c>
       <c r="O26">
-        <v>0.002408370320893567</v>
+        <v>0.0349332049092726</v>
       </c>
       <c r="P26">
-        <v>0.002408370320893567</v>
+        <v>0.03493320490927259</v>
       </c>
       <c r="Q26">
-        <v>4.652919622148</v>
+        <v>36.06195308589611</v>
       </c>
       <c r="R26">
-        <v>41.87627659933201</v>
+        <v>324.557577773065</v>
       </c>
       <c r="S26">
-        <v>0.0001460765432883962</v>
+        <v>0.001790570947979502</v>
       </c>
       <c r="T26">
-        <v>0.0001460765432883962</v>
+        <v>0.001790570947979502</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.432258000000001</v>
+        <v>5.330446333333334</v>
       </c>
       <c r="H27">
-        <v>19.296774</v>
+        <v>15.991339</v>
       </c>
       <c r="I27">
-        <v>0.0606536885217046</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="J27">
-        <v>0.06065368852170461</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>319.008461</v>
       </c>
       <c r="O27">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231155</v>
       </c>
       <c r="P27">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231153</v>
       </c>
       <c r="Q27">
-        <v>683.9815751116462</v>
+        <v>566.8191604132533</v>
       </c>
       <c r="R27">
-        <v>6155.834176004815</v>
+        <v>5101.37244371928</v>
       </c>
       <c r="S27">
-        <v>0.02147332691707601</v>
+        <v>0.02814406416026993</v>
       </c>
       <c r="T27">
-        <v>0.02147332691707601</v>
+        <v>0.02814406416026993</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.432258000000001</v>
+        <v>5.330446333333334</v>
       </c>
       <c r="H28">
-        <v>19.296774</v>
+        <v>15.991339</v>
       </c>
       <c r="I28">
-        <v>0.0606536885217046</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="J28">
-        <v>0.06065368852170461</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>57.89322166666668</v>
+        <v>17.02147133333333</v>
       </c>
       <c r="N28">
-        <v>173.679665</v>
+        <v>51.064414</v>
       </c>
       <c r="O28">
-        <v>0.1927475605145606</v>
+        <v>0.08789210386436075</v>
       </c>
       <c r="P28">
-        <v>0.1927475605145607</v>
+        <v>0.08789210386436073</v>
       </c>
       <c r="Q28">
-        <v>372.3841382111901</v>
+        <v>90.73203945670512</v>
       </c>
       <c r="R28">
-        <v>3351.457243900711</v>
+        <v>816.588355110346</v>
       </c>
       <c r="S28">
-        <v>0.01169085049876857</v>
+        <v>0.004505084722259407</v>
       </c>
       <c r="T28">
-        <v>0.01169085049876857</v>
+        <v>0.004505084722259407</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.432258000000001</v>
+        <v>5.330446333333334</v>
       </c>
       <c r="H29">
-        <v>19.296774</v>
+        <v>15.991339</v>
       </c>
       <c r="I29">
-        <v>0.0606536885217046</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="J29">
-        <v>0.06065368852170461</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.92829033333333</v>
+        <v>53.29392033333333</v>
       </c>
       <c r="N29">
-        <v>89.784871</v>
+        <v>159.881761</v>
       </c>
       <c r="O29">
-        <v>0.09964214783788601</v>
+        <v>0.2751885950131319</v>
       </c>
       <c r="P29">
-        <v>0.09964214783788602</v>
+        <v>0.2751885950131318</v>
       </c>
       <c r="Q29">
-        <v>192.506484922906</v>
+        <v>284.0803822297754</v>
       </c>
       <c r="R29">
-        <v>1732.558364306154</v>
+        <v>2556.723440067979</v>
       </c>
       <c r="S29">
-        <v>0.00604366379859278</v>
+        <v>0.01410533916729231</v>
       </c>
       <c r="T29">
-        <v>0.006043663798592781</v>
+        <v>0.01410533916729231</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.432258000000001</v>
+        <v>5.330446333333334</v>
       </c>
       <c r="H30">
-        <v>19.296774</v>
+        <v>15.991339</v>
       </c>
       <c r="I30">
-        <v>0.0606536885217046</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="J30">
-        <v>0.06065368852170461</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.956161</v>
+        <v>1.833118333333333</v>
       </c>
       <c r="N30">
-        <v>5.868483</v>
+        <v>5.499355</v>
       </c>
       <c r="O30">
-        <v>0.006512770405050989</v>
+        <v>0.009465493540119574</v>
       </c>
       <c r="P30">
-        <v>0.00651277040505099</v>
+        <v>0.009465493540119573</v>
       </c>
       <c r="Q30">
-        <v>12.582532241538</v>
+        <v>9.771338898482778</v>
       </c>
       <c r="R30">
-        <v>113.242790173842</v>
+        <v>87.94205008634499</v>
       </c>
       <c r="S30">
-        <v>0.0003950235475613386</v>
+        <v>0.0004851727113284974</v>
       </c>
       <c r="T30">
-        <v>0.0003950235475613387</v>
+        <v>0.0004851727113284973</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.432258000000001</v>
+        <v>5.330446333333334</v>
       </c>
       <c r="H31">
-        <v>19.296774</v>
+        <v>15.991339</v>
       </c>
       <c r="I31">
-        <v>0.0606536885217046</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="J31">
-        <v>0.06065368852170461</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>103.5205406666667</v>
+        <v>8.413317666666666</v>
       </c>
       <c r="N31">
-        <v>310.561622</v>
+        <v>25.239953</v>
       </c>
       <c r="O31">
-        <v>0.3446574763369395</v>
+        <v>0.04344302414999972</v>
       </c>
       <c r="P31">
-        <v>0.3446574763369397</v>
+        <v>0.04344302414999971</v>
       </c>
       <c r="Q31">
-        <v>665.870825867492</v>
+        <v>44.84673830745189</v>
       </c>
       <c r="R31">
-        <v>5992.837432807429</v>
+        <v>403.620644767067</v>
       </c>
       <c r="S31">
-        <v>0.02090474721641751</v>
+        <v>0.002226758670937563</v>
       </c>
       <c r="T31">
-        <v>0.02090474721641751</v>
+        <v>0.002226758670937563</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>21.82515533333334</v>
+        <v>34.79265333333334</v>
       </c>
       <c r="H32">
-        <v>65.47546600000001</v>
+        <v>104.37796</v>
       </c>
       <c r="I32">
-        <v>0.2058027171058468</v>
+        <v>0.3345623585123824</v>
       </c>
       <c r="J32">
-        <v>0.2058027171058469</v>
+        <v>0.3345623585123823</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.7233726666666667</v>
+        <v>6.765278333333334</v>
       </c>
       <c r="N32">
-        <v>2.170118</v>
+        <v>20.295835</v>
       </c>
       <c r="O32">
-        <v>0.002408370320893567</v>
+        <v>0.0349332049092726</v>
       </c>
       <c r="P32">
-        <v>0.002408370320893567</v>
+        <v>0.03493320490927259</v>
       </c>
       <c r="Q32">
-        <v>15.78772081388756</v>
+        <v>235.3819837551779</v>
       </c>
       <c r="R32">
-        <v>142.089487324988</v>
+        <v>2118.4378537966</v>
       </c>
       <c r="S32">
-        <v>0.0004956491558369763</v>
+        <v>0.01168733542484257</v>
       </c>
       <c r="T32">
-        <v>0.0004956491558369765</v>
+        <v>0.01168733542484257</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>21.82515533333334</v>
+        <v>34.79265333333334</v>
       </c>
       <c r="H33">
-        <v>65.47546600000001</v>
+        <v>104.37796</v>
       </c>
       <c r="I33">
-        <v>0.2058027171058468</v>
+        <v>0.3345623585123824</v>
       </c>
       <c r="J33">
-        <v>0.2058027171058469</v>
+        <v>0.3345623585123823</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>319.008461</v>
       </c>
       <c r="O33">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231155</v>
       </c>
       <c r="P33">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231153</v>
       </c>
       <c r="Q33">
-        <v>2320.803071324204</v>
+        <v>3699.716931324397</v>
       </c>
       <c r="R33">
-        <v>20887.22764191783</v>
+        <v>33297.45238191957</v>
       </c>
       <c r="S33">
-        <v>0.07286068057105789</v>
+        <v>0.1837006896769613</v>
       </c>
       <c r="T33">
-        <v>0.07286068057105791</v>
+        <v>0.1837006896769613</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>21.82515533333334</v>
+        <v>34.79265333333334</v>
       </c>
       <c r="H34">
-        <v>65.47546600000001</v>
+        <v>104.37796</v>
       </c>
       <c r="I34">
-        <v>0.2058027171058468</v>
+        <v>0.3345623585123824</v>
       </c>
       <c r="J34">
-        <v>0.2058027171058469</v>
+        <v>0.3345623585123823</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>57.89322166666668</v>
+        <v>17.02147133333333</v>
       </c>
       <c r="N34">
-        <v>173.679665</v>
+        <v>51.064414</v>
       </c>
       <c r="O34">
-        <v>0.1927475605145606</v>
+        <v>0.08789210386436075</v>
       </c>
       <c r="P34">
-        <v>0.1927475605145607</v>
+        <v>0.08789210386436073</v>
       </c>
       <c r="Q34">
-        <v>1263.528555622099</v>
+        <v>592.222151323938</v>
       </c>
       <c r="R34">
-        <v>11371.75700059889</v>
+        <v>5329.999361915441</v>
       </c>
       <c r="S34">
-        <v>0.03966797166942021</v>
+        <v>0.02940538956347581</v>
       </c>
       <c r="T34">
-        <v>0.03966797166942022</v>
+        <v>0.0294053895634758</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>21.82515533333334</v>
+        <v>34.79265333333334</v>
       </c>
       <c r="H35">
-        <v>65.47546600000001</v>
+        <v>104.37796</v>
       </c>
       <c r="I35">
-        <v>0.2058027171058468</v>
+        <v>0.3345623585123824</v>
       </c>
       <c r="J35">
-        <v>0.2058027171058469</v>
+        <v>0.3345623585123823</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.92829033333333</v>
+        <v>53.29392033333333</v>
       </c>
       <c r="N35">
-        <v>89.784871</v>
+        <v>159.881761</v>
       </c>
       <c r="O35">
-        <v>0.09964214783788601</v>
+        <v>0.2751885950131319</v>
       </c>
       <c r="P35">
-        <v>0.09964214783788602</v>
+        <v>0.2751885950131318</v>
       </c>
       <c r="Q35">
-        <v>653.1895853860985</v>
+        <v>1854.236894931951</v>
       </c>
       <c r="R35">
-        <v>5878.706268474887</v>
+        <v>16688.13205438756</v>
       </c>
       <c r="S35">
-        <v>0.02050662476329942</v>
+        <v>0.09206774538330222</v>
       </c>
       <c r="T35">
-        <v>0.02050662476329943</v>
+        <v>0.09206774538330219</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.82515533333334</v>
+        <v>34.79265333333334</v>
       </c>
       <c r="H36">
-        <v>65.47546600000001</v>
+        <v>104.37796</v>
       </c>
       <c r="I36">
-        <v>0.2058027171058468</v>
+        <v>0.3345623585123824</v>
       </c>
       <c r="J36">
-        <v>0.2058027171058469</v>
+        <v>0.3345623585123823</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.956161</v>
+        <v>1.833118333333333</v>
       </c>
       <c r="N36">
-        <v>5.868483</v>
+        <v>5.499355</v>
       </c>
       <c r="O36">
-        <v>0.006512770405050989</v>
+        <v>0.009465493540119574</v>
       </c>
       <c r="P36">
-        <v>0.00651277040505099</v>
+        <v>0.009465493540119573</v>
       </c>
       <c r="Q36">
-        <v>42.69351768200868</v>
+        <v>63.77905069064445</v>
       </c>
       <c r="R36">
-        <v>384.2416591380781</v>
+        <v>574.0114562158001</v>
       </c>
       <c r="S36">
-        <v>0.00134034584524604</v>
+        <v>0.003166797843266124</v>
       </c>
       <c r="T36">
-        <v>0.001340345845246041</v>
+        <v>0.003166797843266123</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>21.82515533333334</v>
+        <v>34.79265333333334</v>
       </c>
       <c r="H37">
-        <v>65.47546600000001</v>
+        <v>104.37796</v>
       </c>
       <c r="I37">
-        <v>0.2058027171058468</v>
+        <v>0.3345623585123824</v>
       </c>
       <c r="J37">
-        <v>0.2058027171058469</v>
+        <v>0.3345623585123823</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>103.5205406666667</v>
+        <v>8.413317666666666</v>
       </c>
       <c r="N37">
-        <v>310.561622</v>
+        <v>25.239953</v>
       </c>
       <c r="O37">
-        <v>0.3446574763369395</v>
+        <v>0.04344302414999972</v>
       </c>
       <c r="P37">
-        <v>0.3446574763369397</v>
+        <v>0.04344302414999971</v>
       </c>
       <c r="Q37">
-        <v>2259.351880240651</v>
+        <v>292.7216449595423</v>
       </c>
       <c r="R37">
-        <v>20334.16692216586</v>
+        <v>2634.49480463588</v>
       </c>
       <c r="S37">
-        <v>0.07093144510098627</v>
+        <v>0.01453440062053429</v>
       </c>
       <c r="T37">
-        <v>0.0709314451009863</v>
+        <v>0.01453440062053429</v>
       </c>
     </row>
   </sheetData>
